--- a/conven_control/data/opt_data_curved.xlsx
+++ b/conven_control/data/opt_data_curved.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>J1</t>
   </si>
@@ -46,10 +46,7 @@
     <t>dz</t>
   </si>
   <si>
-    <t>[ 0.7238 -0.0505  0.2     0.0024  0.9308 -0.0023  0.3654]</t>
-  </si>
-  <si>
-    <t>[ 0.7238 -0.0505  0.2     0.0447  0.9242 -0.1107  0.3628]</t>
+    <t>[ 0.7238 -0.0505 -0.278   0.1774  0.8153 -0.4488  0.3199]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,69 +447,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-30.764</v>
+        <v>-26.024</v>
       </c>
       <c r="C2">
-        <v>117.447</v>
+        <v>80.392</v>
       </c>
       <c r="D2">
-        <v>-89.949</v>
+        <v>90.413</v>
       </c>
       <c r="E2">
-        <v>-66.996</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="F2">
-        <v>-47.399</v>
+        <v>132.703</v>
       </c>
       <c r="G2">
-        <v>141.019</v>
+        <v>134.906</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>-3.778</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="J2">
-        <v>-0.256</v>
+        <v>-1.999</v>
       </c>
       <c r="K2">
-        <v>7.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-25.534</v>
-      </c>
-      <c r="C3">
-        <v>61.902</v>
-      </c>
-      <c r="D3">
-        <v>29.979</v>
-      </c>
-      <c r="E3">
-        <v>-213.824</v>
-      </c>
-      <c r="F3">
-        <v>123.395</v>
-      </c>
-      <c r="G3">
-        <v>-66.51300000000001</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>-2.674</v>
-      </c>
-      <c r="J3">
-        <v>-2.487</v>
-      </c>
-      <c r="K3">
-        <v>6.667</v>
+        <v>2.233</v>
       </c>
     </row>
   </sheetData>

--- a/conven_control/data/opt_data_curved.xlsx
+++ b/conven_control/data/opt_data_curved.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>J1</t>
   </si>
@@ -46,7 +46,10 @@
     <t>dz</t>
   </si>
   <si>
-    <t>[ 0.7238 -0.0505 -0.278   0.1774  0.8153 -0.4488  0.3199]</t>
+    <t>[   0.7238   -0.0505   -0.278  -122.4354   42.9592  179.8498]</t>
+  </si>
+  <si>
+    <t>[   0.7238   -0.0505   -0.278  -166.3214   42.9067  179.8983]</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,34 +450,69 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-26.024</v>
+        <v>0.019</v>
       </c>
       <c r="C2">
-        <v>80.392</v>
+        <v>56.144</v>
       </c>
       <c r="D2">
-        <v>90.413</v>
+        <v>73.133</v>
       </c>
       <c r="E2">
-        <v>95.73999999999999</v>
+        <v>-77.166</v>
       </c>
       <c r="F2">
-        <v>132.703</v>
+        <v>31.792</v>
       </c>
       <c r="G2">
-        <v>134.906</v>
+        <v>75.107</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>0.6860000000000001</v>
+        <v>3.031</v>
       </c>
       <c r="J2">
-        <v>-1.999</v>
+        <v>-2.405</v>
       </c>
       <c r="K2">
-        <v>2.233</v>
+        <v>7.486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.253</v>
+      </c>
+      <c r="C3">
+        <v>56.447</v>
+      </c>
+      <c r="D3">
+        <v>72.76300000000001</v>
+      </c>
+      <c r="E3">
+        <v>-77.41200000000001</v>
+      </c>
+      <c r="F3">
+        <v>32.954</v>
+      </c>
+      <c r="G3">
+        <v>75.37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>3.034</v>
+      </c>
+      <c r="J3">
+        <v>-2.399</v>
+      </c>
+      <c r="K3">
+        <v>7.48</v>
       </c>
     </row>
   </sheetData>
